--- a/Ordenar_Requisicao/tabela_imprimir.xlsx
+++ b/Ordenar_Requisicao/tabela_imprimir.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tabela" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006053</v>
+        <v>160006015</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -524,18 +524,18 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>2.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>178.043</t>
+          <t>178.163</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006001</v>
+        <v>160006021</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
+          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>20.000,00</t>
+          <t>7.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006003</v>
+        <v>160006053</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -595,19 +595,19 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006018</v>
+        <v>160006003</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -631,19 +631,19 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16.000,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006011</v>
+        <v>160006018</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -667,28 +667,28 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>24.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160002050</v>
+        <v>160006011</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>BATENTE DE BORRACHA PARA PORTA</t>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,17 +698,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>100.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
@@ -739,19 +739,19 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006044</v>
+        <v>160006008</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PARAFUSO M4 20MM CABECA CHATA </t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,33 +770,33 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160002004</v>
+        <v>160006006</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAPATA OVAL 12X50 PRETO       </t>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12.000,00</t>
+          <t>25.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001024</v>
+        <v>160006022</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001011</v>
+        <v>160001061</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL MARRON</t>
+          <t>SUPORTE ANGULAR CENTRAL NATURE</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160001025</v>
+        <v>160003009</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>SUPORTE PLASTICO PORTA DE CORR</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -955,33 +955,33 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>70.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160002003</v>
+        <v>160001018</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -991,100 +991,76 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2.500,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001018</v>
+        <v>160002007</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>160001004</v>
+        <v>160002002</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHAS 8X30MM PINUS         </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>40.000,00</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>160003006</v>
+        <v>160002012</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>DISTANCIADOR DOBRADICA PARA CA</t>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1092,14 +1068,14 @@
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>3.000,00</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>160006032</v>
+        <v>170001005</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
@@ -1108,7 +1084,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+          <t>FILME POLIETILENO (PE) 590X280</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
@@ -1116,106 +1092,10 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14.000,00</t>
+          <t>40,00</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>160002002</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM OFF WHITE  </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>40.000,00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>160002012</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>3039</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>GIZ DE CORRECAO 15x8 OFF WHITE</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2.000,00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>170001005</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>310007096</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOALHA INDUSTRIA VERDE NOVA   </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>40,00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ordenar_Requisicao/tabela_imprimir.xlsx
+++ b/Ordenar_Requisicao/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,16 +495,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>160006015</v>
+        <v>160002006</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
+          <t xml:space="preserve">BUCHA 8MM (PAREDE) NEUTRO     </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -519,17 +519,17 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>2.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>178.163</t>
+          <t>178.281</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006053</v>
+        <v>160006015</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -600,14 +600,14 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006003</v>
+        <v>160006001</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X14 CABECA FLANGEA</t>
+          <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -636,14 +636,14 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006018</v>
+        <v>160006053</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X22 CABECA CHATA -</t>
+          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -667,19 +667,19 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006011</v>
+        <v>160006008</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PREGO 8X8 COM CABECA LISO - 18</t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>100.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
@@ -739,19 +739,19 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>200.000,00</t>
+          <t>80.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006008</v>
+        <v>160006044</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t xml:space="preserve">PARAFUSO M4 20MM CABECA CHATA </t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -770,24 +770,24 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160006006</v>
+        <v>160006055</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25.000,00</t>
+          <t>5.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160006022</v>
+        <v>160001023</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,34 +832,34 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO M4 12MM CHATA PHS BIC</t>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>R3E</t>
+          <t>R3D</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>50.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001061</v>
+        <v>160001024</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE ANGULAR CENTRAL NATURE</t>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,24 +878,24 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001023</v>
+        <v>160001025</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -904,70 +904,58 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160003009</v>
+        <v>160002005</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3014</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>SUPORTE PLASTICO PORTA DE CORR</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>R3E</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>160001018</v>
+        <v>170001005</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -976,43 +964,31 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>R3D</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>S9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>E3</t>
-        </is>
-      </c>
+          <t>FILME POLIETILENO (PE) 590X280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15.000,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160002007</v>
+        <v>160001063</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+          <t xml:space="preserve">CANTONEIRA PLASTICA OFF WHITE </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
@@ -1020,82 +996,10 @@
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>6.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>160002002</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>3070</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TAMPA ADESIVA 18MM NATURE     </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>40.000,00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>160002012</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>3070</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>3.000,00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>170001005</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>40,00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ordenar_Requisicao/tabela_imprimir.xlsx
+++ b/Ordenar_Requisicao/tabela_imprimir.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,18 +524,18 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>4.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>178.281</t>
+          <t>178.391</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>160006021</v>
+        <v>160006011</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X35 CABECA FLANGEA</t>
+          <t>PREGO 8X8 COM CABECA LISO - 18</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -554,24 +554,24 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>7.000,00</t>
+          <t>200.000,00</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>160006015</v>
+        <v>160006004</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -580,7 +580,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 6,0X75 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X22 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -607,7 +607,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>160006001</v>
+        <v>160006007</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA CHATA P</t>
+          <t>PARAFUSO 4,0X16 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -631,19 +631,19 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>30.000,00</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>160006053</v>
+        <v>160006016</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO ESTRUTURAL 7X40 CABEC</t>
+          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>60.000,00</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>160006008</v>
+        <v>160002005</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
+          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -703,19 +703,19 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>160006016</v>
+        <v>160006008</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X12 CABECA FLANGEA</t>
+          <t>PARAFUSO 4,5X25 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -739,19 +739,19 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>160006044</v>
+        <v>160006010</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PARAFUSO M4 20MM CABECA CHATA </t>
+          <t>PARAFUSO 4,5X50 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -775,19 +775,19 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>8.000,00</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>160006055</v>
+        <v>160006006</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>PARAFUSO 3,5X25 CABECA CHATA P</t>
+          <t>PARAFUSO 3,5X40 CABECA CHATA P</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -806,24 +806,24 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>25.000,00</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>160001023</v>
+        <v>160001001</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -832,34 +832,34 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+          <t xml:space="preserve">COLA PARA MONTAGEM - 08GRS    </t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>R3D</t>
+          <t>R3E</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50.000,00</t>
+          <t>1.000,00</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>160001024</v>
+        <v>160001032</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+          <t>CANTONEIRA PLASTICA CINZA 20X2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -878,24 +878,24 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>S8</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>160001025</v>
+        <v>160001034</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+          <t>CHAPA JUNCAO 18X40 COM 2 FUROS</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -914,24 +914,24 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>S9</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30.000,00</t>
+          <t>4.000,00</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>160002005</v>
+        <v>160002016</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -940,22 +940,34 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>GUIA CABO / PASSA FIO 46MM +/-</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+          <t xml:space="preserve">SUPORTE FIM DE CURSO 10X15 MM </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1.000,00</t>
+          <t>10.000,00</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>170001005</v>
+        <v>160001005</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -964,22 +976,34 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>FILME POLIETILENO (PE) 590X280</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+          <t xml:space="preserve">CAVILHA 8X55MM PINUS          </t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>15.000,00</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>160001063</v>
+        <v>160001024</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -988,18 +1012,354 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANTONEIRA PLASTICA OFF WHITE </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>PINO GIROFIX COM ROSCA SOBERBA</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>D0</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6.000,00</t>
+          <t>20.000,00</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>160002014</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>DISTANCIADOR DE PAINEL 70 X 32</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1.000,00</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>160001023</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAVILHA 6X30MM                </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>S8</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50.000,00</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>160001012</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DISPOSITIVO TRAPEZIO CINZA    </t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.000,00</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>160003009</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>SUPORTE PLASTICO PORTA DE CORR</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5.000,00</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>160001018</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>CANTONEIRA PLASTICA 20x20x42 C</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>R3D</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9.000,00</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>160001025</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CASTANHA DO MINI-GIROFIX 12X9M</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>160002003</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>3014</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>SUPORTE PRATELEIRA NYLON 8X10M</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>R3E</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8.000,00</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>160002022</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>3039</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TAMPA ADESIVA 12MM OFF WHITE  </t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20.000,00</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>160002007</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>EMBALAGEM PLASTICA VIRGEM 10X1</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2.000,00</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>160002012</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>3070</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIZ DE CORRECAO 15x8 NATURE   </t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3.000,00</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
